--- a/Excel for menso - Stats and Bots.xlsx
+++ b/Excel for menso - Stats and Bots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhabrataroy/Desktop/eMBA/Final Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF09080-7B61-7447-A901-00F086E422E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C0DB78-C9DC-5049-9B06-5E6A1998A784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs 2022" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="98">
   <si>
     <t>menso costs 2022</t>
   </si>
@@ -326,18 +326,23 @@
     <t>CF</t>
   </si>
   <si>
-    <t>Income statement</t>
+    <t>Yearly Income and Expense Statement</t>
+  </si>
+  <si>
+    <t>How many months until cash will be burned totally</t>
+  </si>
+  <si>
+    <t>How many months until cash will be burned totally in Saas Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.00"/>
@@ -410,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -557,11 +562,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -586,7 +606,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,13 +633,9 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,6 +656,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,7 +1212,7 @@
             <c:numRef>
               <c:f>'revenue 2024'!$B$16:$M$16</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@</c:formatCode>
+                <c:formatCode>_("€"* #,##0_);_("€"* \(#,##0\);_("€"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2074.3368799999998</c:v>
@@ -1314,7 +1335,7 @@
             <c:numRef>
               <c:f>'revenue 2024'!$B$18:$M$18</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@</c:formatCode>
+                <c:formatCode>_("€"* #,##0_);_("€"* \(#,##0\);_("€"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2074.3368799999998</c:v>
@@ -1445,7 +1466,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;€&quot;* #,##0_);_(&quot;€&quot;* \(#,##0\);_(&quot;€&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1658,7 +1679,7 @@
             <c:numRef>
               <c:f>'revenue 2025'!$B$16:$M$16</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@</c:formatCode>
+                <c:formatCode>_("€"* #,##0_);_("€"* \(#,##0\);_("€"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>11580.75246366053</c:v>
@@ -1781,7 +1802,7 @@
             <c:numRef>
               <c:f>'revenue 2025'!$B$18:$M$18</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@</c:formatCode>
+                <c:formatCode>_("€"* #,##0_);_("€"* \(#,##0\);_("€"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>11580.75246366053</c:v>
@@ -1912,7 +1933,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;€&quot;* #,##0_);_(&quot;€&quot;* \(#,##0\);_(&quot;€&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4124,8 +4145,8 @@
   </sheetPr>
   <dimension ref="A1:V984"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U5" activeCellId="5" sqref="B5:B43 I5:I43 C5:D43 M5:M43 Q5:Q43 U5:V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4148,87 +4169,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1"/>
     <row r="3" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>44576</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>44607</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>44635</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>44666</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>44696</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>44727</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>44757</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <v>44788</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="23">
         <v>44819</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="23">
         <v>44849</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="23">
         <v>44880</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="23">
         <v>44910</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="50" t="s">
+      <c r="V5" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="14">
@@ -4306,7 +4327,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="14">
@@ -4392,7 +4413,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14">
@@ -4478,7 +4499,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="14">
@@ -4564,7 +4585,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="14">
@@ -4759,78 +4780,78 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47">
         <f t="shared" ref="F13:V13" si="25">COUNTIF(F6:F10,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="47">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="P13" s="52">
+      <c r="P13" s="47">
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="Q13" s="47">
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="R13" s="52">
+      <c r="R13" s="47">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="S13" s="52">
+      <c r="S13" s="47">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="T13" s="52">
+      <c r="T13" s="47">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="U13" s="52">
+      <c r="U13" s="47">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="V13" s="53">
+      <c r="V13" s="48">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
@@ -4838,71 +4859,71 @@
     <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="48" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>44576</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>44607</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>44635</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="23">
         <v>44666</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="23">
         <v>44696</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="23">
         <v>44727</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M17" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="23">
         <v>44757</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="23">
         <v>44788</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="23">
         <v>44819</v>
       </c>
-      <c r="Q17" s="49" t="s">
+      <c r="Q17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="23">
         <v>44849</v>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="23">
         <v>44880</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="23">
         <v>44910</v>
       </c>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="V17" s="50" t="s">
+      <c r="V17" s="45" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5191,7 +5212,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="14">
@@ -5268,71 +5289,71 @@
     <row r="23" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="48" t="s">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>44576</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>44607</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <v>44635</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="23">
         <v>44666</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="23">
         <v>44696</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="23">
         <v>44727</v>
       </c>
-      <c r="M26" s="49" t="s">
+      <c r="M26" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="23">
         <v>44757</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="23">
         <v>44788</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P26" s="23">
         <v>44819</v>
       </c>
-      <c r="Q26" s="49" t="s">
+      <c r="Q26" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R26" s="23">
         <v>44849</v>
       </c>
-      <c r="S26" s="24">
+      <c r="S26" s="23">
         <v>44880</v>
       </c>
-      <c r="T26" s="24">
+      <c r="T26" s="23">
         <v>44910</v>
       </c>
-      <c r="U26" s="49" t="s">
+      <c r="U26" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="V26" s="50" t="s">
+      <c r="V26" s="45" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5635,7 +5656,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="14">
@@ -5715,71 +5736,71 @@
     <row r="33" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="34" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="35" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="48" t="s">
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="23">
         <v>44576</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="23">
         <v>44607</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="23">
         <v>44635</v>
       </c>
-      <c r="I36" s="49" t="s">
+      <c r="I36" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="23">
         <v>44666</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36" s="23">
         <v>44696</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="23">
         <v>44727</v>
       </c>
-      <c r="M36" s="49" t="s">
+      <c r="M36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="24">
+      <c r="N36" s="23">
         <v>44757</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="23">
         <v>44788</v>
       </c>
-      <c r="P36" s="24">
+      <c r="P36" s="23">
         <v>44819</v>
       </c>
-      <c r="Q36" s="49" t="s">
+      <c r="Q36" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R36" s="23">
         <v>44849</v>
       </c>
-      <c r="S36" s="24">
+      <c r="S36" s="23">
         <v>44880</v>
       </c>
-      <c r="T36" s="24">
+      <c r="T36" s="23">
         <v>44910</v>
       </c>
-      <c r="U36" s="49" t="s">
+      <c r="U36" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="V36" s="50" t="s">
+      <c r="V36" s="45" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5939,7 +5960,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="14">
@@ -6017,71 +6038,71 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="48" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="23">
         <v>44576</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="23">
         <v>44607</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="23">
         <v>44635</v>
       </c>
-      <c r="I42" s="49" t="s">
+      <c r="I42" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="23">
         <v>44666</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="23">
         <v>44696</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="23">
         <v>44727</v>
       </c>
-      <c r="M42" s="49" t="s">
+      <c r="M42" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="24">
+      <c r="N42" s="23">
         <v>44757</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="23">
         <v>44788</v>
       </c>
-      <c r="P42" s="24">
+      <c r="P42" s="23">
         <v>44819</v>
       </c>
-      <c r="Q42" s="49" t="s">
+      <c r="Q42" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R42" s="24">
+      <c r="R42" s="23">
         <v>44849</v>
       </c>
-      <c r="S42" s="24">
+      <c r="S42" s="23">
         <v>44880</v>
       </c>
-      <c r="T42" s="24">
+      <c r="T42" s="23">
         <v>44910</v>
       </c>
-      <c r="U42" s="49" t="s">
+      <c r="U42" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="50" t="s">
+      <c r="V42" s="45" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6169,22 +6190,22 @@
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:22" ht="21" customHeight="1">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="52"/>
     </row>
     <row r="47" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="21">
-        <f>-(V43/12)</f>
-        <v>-2783.3333333333335</v>
+        <f>-(V43/4)</f>
+        <v>-8350</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="21">
@@ -6192,12 +6213,12 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="37.5" customHeight="1">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="58">
         <f>-(B48/B47)</f>
-        <v>35.928143712574851</v>
+        <v>11.976047904191617</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1"/>
@@ -7145,8 +7166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC9C21-377B-6945-95BA-0D02293DA1E7}">
   <dimension ref="A1:V994"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B59"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U5" activeCellId="5" sqref="A5:A47 B5:B47 I5:I47 M5:M47 Q5:Q47 U5:V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7177,87 +7198,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1"/>
     <row r="3" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>44941</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>44972</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>45000</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>45031</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>45061</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>45092</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>45122</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <v>45153</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="23">
         <v>45184</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="23">
         <v>45214</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="23">
         <v>45245</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="23">
         <v>45275</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="50" t="s">
+      <c r="V5" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="14">
@@ -7343,7 +7364,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="14">
@@ -7429,7 +7450,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14">
@@ -7515,7 +7536,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="14">
@@ -7586,7 +7607,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="14">
@@ -7657,7 +7678,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="14">
@@ -7743,7 +7764,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="14">
@@ -7829,7 +7850,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="14">
@@ -7915,7 +7936,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="14">
@@ -8109,78 +8130,78 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47">
         <f t="shared" ref="F17:V17" si="16">COUNTIF(F6:F14,"&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="47">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="47">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="47">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="47">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="47">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="47">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="47">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="47">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="47">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="P17" s="52">
+      <c r="P17" s="47">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="47">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="R17" s="52">
+      <c r="R17" s="47">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="S17" s="52">
+      <c r="S17" s="47">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="T17" s="52">
+      <c r="T17" s="47">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="U17" s="52">
+      <c r="U17" s="47">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="V17" s="53">
+      <c r="V17" s="48">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
@@ -8188,71 +8209,71 @@
     <row r="18" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="19" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="20" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="48" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>44941</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>44972</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>45000</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <v>45031</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <v>45061</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="23">
         <v>45092</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="23">
         <v>45122</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="23">
         <v>45153</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="23">
         <v>45184</v>
       </c>
-      <c r="Q21" s="49" t="s">
+      <c r="Q21" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="23">
         <v>45214</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="23">
         <v>45245</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="23">
         <v>45275</v>
       </c>
-      <c r="U21" s="49" t="s">
+      <c r="U21" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="V21" s="50" t="s">
+      <c r="V21" s="45" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8573,7 +8594,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="14">
@@ -8652,71 +8673,71 @@
     <row r="27" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="48" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>44941</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>44972</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="23">
         <v>45000</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="23">
         <v>45031</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="23">
         <v>45061</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="23">
         <v>45092</v>
       </c>
-      <c r="M30" s="49" t="s">
+      <c r="M30" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="23">
         <v>45122</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="23">
         <v>45153</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="23">
         <v>45184</v>
       </c>
-      <c r="Q30" s="49" t="s">
+      <c r="Q30" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="23">
         <v>45214</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S30" s="23">
         <v>45245</v>
       </c>
-      <c r="T30" s="24">
+      <c r="T30" s="23">
         <v>45275</v>
       </c>
-      <c r="U30" s="49" t="s">
+      <c r="U30" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="V30" s="50" t="s">
+      <c r="V30" s="45" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9037,7 +9058,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="14">
@@ -9117,71 +9138,71 @@
     <row r="37" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="38" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="39" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="48" t="s">
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="23">
         <v>44941</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="23">
         <v>44972</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <v>45000</v>
       </c>
-      <c r="I40" s="49" t="s">
+      <c r="I40" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="23">
         <v>45031</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="23">
         <v>45061</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="23">
         <v>45092</v>
       </c>
-      <c r="M40" s="49" t="s">
+      <c r="M40" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="24">
+      <c r="N40" s="23">
         <v>45122</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="23">
         <v>45153</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="23">
         <v>45184</v>
       </c>
-      <c r="Q40" s="49" t="s">
+      <c r="Q40" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="R40" s="24">
+      <c r="R40" s="23">
         <v>43388</v>
       </c>
-      <c r="S40" s="24">
+      <c r="S40" s="23">
         <v>43419</v>
       </c>
-      <c r="T40" s="24">
+      <c r="T40" s="23">
         <v>43449</v>
       </c>
-      <c r="U40" s="49" t="s">
+      <c r="U40" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="V40" s="50" t="s">
+      <c r="V40" s="45" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9341,7 +9362,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="14">
@@ -9419,71 +9440,71 @@
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="45" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="48" t="s">
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="23">
         <v>44941</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="23">
         <v>44972</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="23">
         <v>45000</v>
       </c>
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="23">
         <v>45031</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="23">
         <v>45061</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="23">
         <v>45092</v>
       </c>
-      <c r="M46" s="49" t="s">
+      <c r="M46" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N46" s="24">
+      <c r="N46" s="23">
         <v>45122</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O46" s="23">
         <v>45153</v>
       </c>
-      <c r="P46" s="24">
+      <c r="P46" s="23">
         <v>45184</v>
       </c>
-      <c r="Q46" s="49" t="s">
+      <c r="Q46" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="R46" s="24">
+      <c r="R46" s="23">
         <v>43388</v>
       </c>
-      <c r="S46" s="24">
+      <c r="S46" s="23">
         <v>43419</v>
       </c>
-      <c r="T46" s="24">
+      <c r="T46" s="23">
         <v>43449</v>
       </c>
-      <c r="U46" s="49" t="s">
+      <c r="U46" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="V46" s="50" t="s">
+      <c r="V46" s="45" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9571,13 +9592,13 @@
       <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:4" ht="21" customHeight="1">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="57"/>
+      <c r="B50" s="52"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B51" s="21">
@@ -9586,7 +9607,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="21">
@@ -9595,23 +9616,23 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="58">
         <f>-(B52/B51)</f>
         <v>4.7425576105231926</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="55" spans="1:4" ht="21" customHeight="1">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="52"/>
     </row>
     <row r="56" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="21">
@@ -9620,7 +9641,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="21">
@@ -9629,7 +9650,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="21">
@@ -9638,26 +9659,26 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="21">
         <f>B57+B58</f>
         <v>92974.450613840003</v>
       </c>
-      <c r="C59" s="61">
+      <c r="C59" s="56">
         <f>B59-B47</f>
         <v>-77542.216052826654</v>
       </c>
-      <c r="D59" s="62" t="s">
+      <c r="D59" s="57" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="57" customHeight="1">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="58">
         <f>-(B59/B56)</f>
         <v>6.6206709961393333</v>
       </c>
@@ -10606,8 +10627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E617BC14-10AD-AA46-A7E8-1C0ABF95D1E4}">
   <dimension ref="A1:V993"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:B58"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U5" activeCellId="5" sqref="A5:A46 B5:B46 I5:I46 M5:M46 Q5:Q46 U5:V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -10638,87 +10659,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1"/>
     <row r="3" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>45306</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>45337</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>45366</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>45397</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>45427</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>45458</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>45488</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <v>45519</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="23">
         <v>45550</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="23">
         <v>45580</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="23">
         <v>45611</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="23">
         <v>45641</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="50" t="s">
+      <c r="V5" s="45" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="14">
@@ -10804,7 +10825,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="14">
@@ -10890,7 +10911,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14">
@@ -10976,7 +10997,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="14">
@@ -11062,7 +11083,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="14">
@@ -11148,7 +11169,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="14">
@@ -11234,7 +11255,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="14">
@@ -11320,7 +11341,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="14">
@@ -11406,7 +11427,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="14">
@@ -11572,78 +11593,78 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47">
         <f>COUNTIF(F6:F14,"&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="47">
         <f>COUNTIF(G6:G14,"&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="47">
         <f t="shared" ref="H16:V16" si="20">COUNTIF(H6:H14,"&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="N16" s="52">
+      <c r="N16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="O16" s="52">
+      <c r="O16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="P16" s="52">
+      <c r="P16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="Q16" s="52">
+      <c r="Q16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="R16" s="52">
+      <c r="R16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="S16" s="52">
+      <c r="S16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="T16" s="52">
+      <c r="T16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="U16" s="52">
+      <c r="U16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-      <c r="V16" s="52">
+      <c r="V16" s="47">
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
@@ -11651,71 +11672,71 @@
     <row r="17" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="18" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="19" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="48" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>45306</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>45337</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <v>45366</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="23">
         <v>45397</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="23">
         <v>45427</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="23">
         <v>45458</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="23">
         <v>45488</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="23">
         <v>45519</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="23">
         <v>45550</v>
       </c>
-      <c r="Q20" s="49" t="s">
+      <c r="Q20" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="23">
         <v>45580</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="23">
         <v>45611</v>
       </c>
-      <c r="T20" s="24">
+      <c r="T20" s="23">
         <v>45641</v>
       </c>
-      <c r="U20" s="49" t="s">
+      <c r="U20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="50" t="s">
+      <c r="V20" s="45" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12036,7 +12057,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="14">
@@ -12115,71 +12136,71 @@
     <row r="26" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="48" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <v>45306</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <v>45337</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="23">
         <v>45366</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="23">
         <v>45397</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="23">
         <v>45427</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="23">
         <v>45458</v>
       </c>
-      <c r="M29" s="49" t="s">
+      <c r="M29" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="23">
         <v>45488</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="23">
         <v>45519</v>
       </c>
-      <c r="P29" s="24">
+      <c r="P29" s="23">
         <v>45550</v>
       </c>
-      <c r="Q29" s="49" t="s">
+      <c r="Q29" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="23">
         <v>45580</v>
       </c>
-      <c r="S29" s="24">
+      <c r="S29" s="23">
         <v>45611</v>
       </c>
-      <c r="T29" s="24">
+      <c r="T29" s="23">
         <v>45641</v>
       </c>
-      <c r="U29" s="49" t="s">
+      <c r="U29" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="V29" s="50" t="s">
+      <c r="V29" s="45" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12500,7 +12521,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="14">
@@ -12580,71 +12601,71 @@
     <row r="36" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="38" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="48" t="s">
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="23">
         <v>45306</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="23">
         <v>45337</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="23">
         <v>45366</v>
       </c>
-      <c r="I39" s="49" t="s">
+      <c r="I39" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="23">
         <v>45397</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="23">
         <v>45427</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="23">
         <v>45458</v>
       </c>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N39" s="23">
         <v>45488</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="23">
         <v>45519</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="23">
         <v>45550</v>
       </c>
-      <c r="Q39" s="49" t="s">
+      <c r="Q39" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R39" s="23">
         <v>45580</v>
       </c>
-      <c r="S39" s="24">
+      <c r="S39" s="23">
         <v>45611</v>
       </c>
-      <c r="T39" s="24">
+      <c r="T39" s="23">
         <v>45641</v>
       </c>
-      <c r="U39" s="49" t="s">
+      <c r="U39" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="V39" s="50" t="s">
+      <c r="V39" s="45" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12804,7 +12825,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="14">
@@ -12882,71 +12903,71 @@
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="48" t="s">
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="23">
         <v>45306</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="23">
         <v>45337</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="23">
         <v>45366</v>
       </c>
-      <c r="I45" s="49" t="s">
+      <c r="I45" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="23">
         <v>45397</v>
       </c>
-      <c r="K45" s="24">
+      <c r="K45" s="23">
         <v>45427</v>
       </c>
-      <c r="L45" s="24">
+      <c r="L45" s="23">
         <v>45458</v>
       </c>
-      <c r="M45" s="49" t="s">
+      <c r="M45" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="N45" s="24">
+      <c r="N45" s="23">
         <v>45488</v>
       </c>
-      <c r="O45" s="24">
+      <c r="O45" s="23">
         <v>45519</v>
       </c>
-      <c r="P45" s="24">
+      <c r="P45" s="23">
         <v>45550</v>
       </c>
-      <c r="Q45" s="49" t="s">
+      <c r="Q45" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="R45" s="24">
+      <c r="R45" s="23">
         <v>45580</v>
       </c>
-      <c r="S45" s="24">
+      <c r="S45" s="23">
         <v>45611</v>
       </c>
-      <c r="T45" s="24">
+      <c r="T45" s="23">
         <v>45641</v>
       </c>
-      <c r="U45" s="49" t="s">
+      <c r="U45" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="V45" s="50" t="s">
+      <c r="V45" s="45" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13034,13 +13055,13 @@
       <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:4" ht="21" customHeight="1">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="57"/>
+      <c r="B49" s="52"/>
     </row>
     <row r="50" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B50" s="21">
@@ -13049,7 +13070,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="21">
@@ -13058,23 +13079,23 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="58">
         <f>-(B51/B50)</f>
         <v>-4.4865313048887172</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="54" spans="1:4" ht="21" customHeight="1">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="57"/>
+      <c r="B54" s="52"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="21">
@@ -13083,7 +13104,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="21">
@@ -13092,7 +13113,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="21">
@@ -13101,26 +13122,26 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="21">
         <f>B56+B57</f>
         <v>206369.97880656656</v>
       </c>
-      <c r="C58" s="61">
+      <c r="C58" s="56">
         <f>B58-B46</f>
         <v>-3030.0211934334366</v>
       </c>
-      <c r="D58" s="62" t="s">
+      <c r="D58" s="57" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="57" customHeight="1">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="58">
         <f>-(B58/B55)</f>
         <v>11.940403788229503</v>
       </c>
@@ -14069,8 +14090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61FCEB1-0B48-7943-B409-FB61BD3E641A}">
   <dimension ref="A1:V996"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B59"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U5" activeCellId="4" sqref="A5:B47 I5:I47 M5:M47 Q5:Q47 U5:V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -14101,87 +14122,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1"/>
     <row r="3" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>45672</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>45703</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>45731</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>45762</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>45792</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>45823</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>45853</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <v>45884</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="23">
         <v>45915</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="23">
         <v>45945</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="23">
         <v>45976</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="23">
         <v>46006</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="V5" s="50" t="s">
+      <c r="V5" s="45" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="14">
@@ -14267,7 +14288,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="14">
@@ -14353,7 +14374,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14">
@@ -14439,7 +14460,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="14">
@@ -14525,7 +14546,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="14">
@@ -14611,7 +14632,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="14">
@@ -14697,7 +14718,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="14">
@@ -14783,7 +14804,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="14">
@@ -14869,7 +14890,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="14">
@@ -14955,7 +14976,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="14">
@@ -15121,78 +15142,78 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47">
         <f>COUNTIF(F6:F15,"&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="47">
         <f>COUNTIF(G6:G15,"&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="47">
         <f t="shared" ref="H17:V17" si="26">COUNTIF(H6:H15,"&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="P17" s="52">
+      <c r="P17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="R17" s="52">
+      <c r="R17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="S17" s="52">
+      <c r="S17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="T17" s="52">
+      <c r="T17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="U17" s="52">
+      <c r="U17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="V17" s="52">
+      <c r="V17" s="47">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
@@ -15200,71 +15221,71 @@
     <row r="18" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="19" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="20" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="48" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>45672</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>45703</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>45731</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <v>45762</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <v>45792</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="23">
         <v>45823</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="23">
         <v>45853</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="23">
         <v>45884</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="23">
         <v>45915</v>
       </c>
-      <c r="Q21" s="49" t="s">
+      <c r="Q21" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="23">
         <v>45945</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="23">
         <v>45976</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="23">
         <v>46006</v>
       </c>
-      <c r="U21" s="49" t="s">
+      <c r="U21" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="V21" s="50" t="s">
+      <c r="V21" s="45" t="s">
         <v>68</v>
       </c>
     </row>
@@ -15585,7 +15606,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="14">
@@ -15664,71 +15685,71 @@
     <row r="27" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="48" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>45672</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>45703</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="23">
         <v>45731</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="23">
         <v>45762</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="23">
         <v>45792</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="23">
         <v>45823</v>
       </c>
-      <c r="M30" s="49" t="s">
+      <c r="M30" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="23">
         <v>45853</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="23">
         <v>45884</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="23">
         <v>45915</v>
       </c>
-      <c r="Q30" s="49" t="s">
+      <c r="Q30" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="23">
         <v>45945</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S30" s="23">
         <v>45976</v>
       </c>
-      <c r="T30" s="24">
+      <c r="T30" s="23">
         <v>46006</v>
       </c>
-      <c r="U30" s="49" t="s">
+      <c r="U30" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="V30" s="50" t="s">
+      <c r="V30" s="45" t="s">
         <v>68</v>
       </c>
     </row>
@@ -16049,7 +16070,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="14">
@@ -16129,71 +16150,71 @@
     <row r="37" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="38" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="39" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="48" t="s">
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="23">
         <v>45672</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="23">
         <v>45703</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <v>45731</v>
       </c>
-      <c r="I40" s="49" t="s">
+      <c r="I40" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="23">
         <v>45762</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="23">
         <v>45792</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="23">
         <v>45823</v>
       </c>
-      <c r="M40" s="49" t="s">
+      <c r="M40" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N40" s="24">
+      <c r="N40" s="23">
         <v>45853</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="23">
         <v>45884</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="23">
         <v>45915</v>
       </c>
-      <c r="Q40" s="49" t="s">
+      <c r="Q40" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="R40" s="24">
+      <c r="R40" s="23">
         <v>45945</v>
       </c>
-      <c r="S40" s="24">
+      <c r="S40" s="23">
         <v>45976</v>
       </c>
-      <c r="T40" s="24">
+      <c r="T40" s="23">
         <v>46006</v>
       </c>
-      <c r="U40" s="49" t="s">
+      <c r="U40" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="V40" s="50" t="s">
+      <c r="V40" s="45" t="s">
         <v>68</v>
       </c>
     </row>
@@ -16353,7 +16374,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="14">
@@ -16431,71 +16452,71 @@
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="45" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="48" t="s">
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="23">
         <v>45672</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="23">
         <v>45703</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="23">
         <v>45731</v>
       </c>
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="23">
         <v>45762</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="23">
         <v>45792</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="23">
         <v>45823</v>
       </c>
-      <c r="M46" s="49" t="s">
+      <c r="M46" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N46" s="24">
+      <c r="N46" s="23">
         <v>45853</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O46" s="23">
         <v>45884</v>
       </c>
-      <c r="P46" s="24">
+      <c r="P46" s="23">
         <v>45915</v>
       </c>
-      <c r="Q46" s="49" t="s">
+      <c r="Q46" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="R46" s="24">
+      <c r="R46" s="23">
         <v>45945</v>
       </c>
-      <c r="S46" s="24">
+      <c r="S46" s="23">
         <v>45976</v>
       </c>
-      <c r="T46" s="24">
+      <c r="T46" s="23">
         <v>46006</v>
       </c>
-      <c r="U46" s="49" t="s">
+      <c r="U46" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="V46" s="50" t="s">
+      <c r="V46" s="45" t="s">
         <v>68</v>
       </c>
     </row>
@@ -16583,13 +16604,13 @@
       <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:4" ht="21" customHeight="1">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="57"/>
+      <c r="B50" s="52"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B51" s="21">
@@ -16598,7 +16619,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="21">
@@ -16607,23 +16628,23 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="58">
         <f>-(B52/B51)</f>
         <v>-0.13417068015203409</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="55" spans="1:4" ht="21" customHeight="1">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="52"/>
     </row>
     <row r="56" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="21">
@@ -16632,7 +16653,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="21">
@@ -16641,7 +16662,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="21">
@@ -16650,26 +16671,26 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="21">
         <f>B57+B58</f>
         <v>1975456.416675834</v>
       </c>
-      <c r="C59" s="61">
+      <c r="C59" s="56">
         <f>B59-B47</f>
         <v>1712056.416675834</v>
       </c>
-      <c r="D59" s="62" t="s">
+      <c r="D59" s="57" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="57" customHeight="1">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="58">
         <f>-(B59/B56)</f>
         <v>87.474084871254647</v>
       </c>
@@ -17620,8 +17641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8126D1C9-326D-AD47-9930-1B4E72F71B29}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -18064,27 +18085,27 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10">
+      <c r="H19" s="59">
         <f t="shared" ref="H19:M19" si="7">100/H9</f>
         <v>10</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="59">
         <f t="shared" si="7"/>
         <v>10.526315789473685</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="59">
         <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="59">
         <f t="shared" si="7"/>
         <v>11.764705882352942</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="59">
         <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="59">
         <f t="shared" si="7"/>
         <v>13.333333333333334</v>
       </c>
@@ -18099,27 +18120,27 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5">
+      <c r="H20" s="59">
         <f t="shared" ref="H20:M20" si="8">$B6*H19</f>
         <v>160</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="59">
         <f t="shared" si="8"/>
         <v>168.42105263157896</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="59">
         <f t="shared" si="8"/>
         <v>177.77777777777777</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="59">
         <f t="shared" si="8"/>
         <v>188.23529411764707</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="59">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="59">
         <f t="shared" si="8"/>
         <v>213.33333333333334</v>
       </c>
@@ -18135,8 +18156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A5F612-2C02-FD43-A63A-A6ADC1F6F7B0}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18285,662 +18306,662 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>45306</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>45337</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>45366</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>45397</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>45427</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>45458</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>45488</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>45519</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>45550</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>45580</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="29">
         <v>45611</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <v>45641</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>7</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>6.5</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>5.5</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>5</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>5</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <v>5</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="32">
         <v>5</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <v>5</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="32">
         <v>5</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="32">
         <v>5</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="32">
         <v>5</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <f>'revenue 2023'!M10*1.2</f>
         <v>418.03775999999993</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <f t="shared" ref="C10:M10" si="0">B10*1.2</f>
         <v>501.64531199999988</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>601.97437439999987</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <f t="shared" si="0"/>
         <v>722.36924927999985</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <f t="shared" si="0"/>
         <v>866.84309913599975</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
         <v>1040.2117189631997</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <f t="shared" si="0"/>
         <v>1248.2540627558396</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <f t="shared" si="0"/>
         <v>1497.9048753070076</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="33">
         <f t="shared" si="0"/>
         <v>1797.485850368409</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="33">
         <f t="shared" si="0"/>
         <v>2156.9830204420909</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="33">
         <f t="shared" si="0"/>
         <v>2588.3796245305089</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <f t="shared" si="0"/>
         <v>3106.0555494366104</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <f t="shared" ref="B11:M11" si="1">(B14/B10)*100</f>
         <v>31.013001074352715</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <f t="shared" si="1"/>
         <v>29.720792696254687</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <f t="shared" si="1"/>
         <v>28.482426333910738</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <f t="shared" si="1"/>
         <v>27.295658569997794</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <f t="shared" si="1"/>
         <v>26.158339462914554</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <f t="shared" si="1"/>
         <v>25.068408651959778</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <f t="shared" si="1"/>
         <v>24.023891624794786</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <f t="shared" si="1"/>
         <v>23.022896140428337</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <f t="shared" si="1"/>
         <v>22.063608801243824</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="36">
         <f t="shared" si="1"/>
         <v>21.144291767858665</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="36">
         <f t="shared" si="1"/>
         <v>20.263279610864558</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745203</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <f t="shared" ref="C12:M12" si="2">-1*B15*(C9/100)</f>
         <v>-8.4269935749999991</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <f t="shared" si="2"/>
         <v>-14.867161357124999</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <f t="shared" si="2"/>
         <v>-21.766438231518748</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <f t="shared" si="2"/>
         <v>-31.28024658270531</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <f t="shared" si="2"/>
         <v>-42.142144189288175</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <f t="shared" si="2"/>
         <v>-54.637275536722541</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <f t="shared" si="2"/>
         <v>-69.006479131278866</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <f t="shared" si="2"/>
         <v>-85.531073137768317</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <f t="shared" si="2"/>
         <v>-104.53435575159365</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="37">
         <f t="shared" si="2"/>
         <v>-126.38813078217473</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="38">
         <f t="shared" si="2"/>
         <v>-151.51997206610881</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <f t="shared" ref="B13:M13" si="3">SUM($B12:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <f t="shared" si="3"/>
         <v>-8.4269935749999991</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <f t="shared" si="3"/>
         <v>-23.294154932124997</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <f t="shared" si="3"/>
         <v>-45.060593163643745</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <f t="shared" si="3"/>
         <v>-76.340839746349047</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <f t="shared" si="3"/>
         <v>-118.48298393563722</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <f t="shared" si="3"/>
         <v>-173.12025947235975</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="37">
         <f t="shared" si="3"/>
         <v>-242.12673860363861</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <f t="shared" si="3"/>
         <v>-327.65781174140693</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="37">
         <f t="shared" si="3"/>
         <v>-432.19216749300057</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="37">
         <f t="shared" si="3"/>
         <v>-558.58029827517532</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="38">
         <f t="shared" si="3"/>
         <v>-710.10027034128416</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <f>'revenue 2023'!M14*1.15</f>
         <v>129.64605499999999</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <f t="shared" ref="C14:M14" si="4">B14+(B14*$B2)</f>
         <v>149.09296325</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <f t="shared" si="4"/>
         <v>171.45690773749999</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <f t="shared" si="4"/>
         <v>197.175443898125</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <f t="shared" si="4"/>
         <v>226.75176048284374</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <f t="shared" si="4"/>
         <v>260.76452455527027</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <f t="shared" si="4"/>
         <v>299.87920323856082</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="37">
         <f t="shared" si="4"/>
         <v>344.86108372434495</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="37">
         <f t="shared" si="4"/>
         <v>396.5902462829967</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="37">
         <f t="shared" si="4"/>
         <v>456.07878322544622</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="37">
         <f t="shared" si="4"/>
         <v>524.49060070926316</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="38">
         <f t="shared" si="4"/>
         <v>603.16419081565266</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="37">
         <f>SUM($B14:B14)+B13</f>
         <v>129.64605499999999</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <f t="shared" ref="C15:M15" si="5">SUM($B14:C14)+C12</f>
         <v>270.31202467499998</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <f t="shared" si="5"/>
         <v>435.32876463037496</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <f t="shared" si="5"/>
         <v>625.60493165410617</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <f t="shared" si="5"/>
         <v>842.84288378576343</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <f t="shared" si="5"/>
         <v>1092.7455107344508</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="37">
         <f t="shared" si="5"/>
         <v>1380.1295826255773</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="37">
         <f t="shared" si="5"/>
         <v>1710.6214627553661</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="37">
         <f t="shared" si="5"/>
         <v>2090.687115031873</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="37">
         <f t="shared" si="5"/>
         <v>2527.7626156434944</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="37">
         <f t="shared" si="5"/>
         <v>3030.3994413221762</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="37">
         <f t="shared" si="5"/>
         <v>3608.4317908538947</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="5">
         <f t="shared" ref="B16:M16" si="6">B15*$B6</f>
         <v>2074.3368799999998</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="5">
         <f t="shared" si="6"/>
         <v>4324.9923947999996</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="5">
         <f t="shared" si="6"/>
         <v>6965.2602340859994</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="5">
         <f t="shared" si="6"/>
         <v>10009.678906465699</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="5">
         <f t="shared" si="6"/>
         <v>13485.486140572215</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="5">
         <f t="shared" si="6"/>
         <v>17483.928171751213</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="5">
         <f t="shared" si="6"/>
         <v>22082.073322009237</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="5">
         <f t="shared" si="6"/>
         <v>27369.943404085858</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="5">
         <f t="shared" si="6"/>
         <v>33450.993840509967</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="5">
         <f t="shared" si="6"/>
         <v>40444.201850295911</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="5">
         <f t="shared" si="6"/>
         <v>48486.39106115482</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="5">
         <f t="shared" si="6"/>
         <v>57734.908653662314</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="42">
+      <c r="C17" s="39">
         <f t="shared" ref="C17:M17" si="7">(C16-B16)/B16</f>
         <v>1.085</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="39">
         <f t="shared" si="7"/>
         <v>0.61046762589928061</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="39">
         <f t="shared" si="7"/>
         <v>0.43708613462583662</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="39">
         <f t="shared" si="7"/>
         <v>0.34724462858257493</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="39">
         <f t="shared" si="7"/>
         <v>0.2964996581880241</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="39">
         <f t="shared" si="7"/>
         <v>0.26299268134075543</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="39">
         <f t="shared" si="7"/>
         <v>0.23946438384507093</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="39">
         <f t="shared" si="7"/>
         <v>0.22217986886725949</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="39">
         <f t="shared" si="7"/>
         <v>0.20905830311436063</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="39">
         <f t="shared" si="7"/>
         <v>0.19884653035377106</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="40">
         <f t="shared" si="7"/>
         <v>0.19074460668443116</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="5">
         <f>B16</f>
         <v>2074.3368799999998</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="5">
         <f t="shared" ref="C18:M18" si="8">SUM($B16:C16)</f>
         <v>6399.3292747999994</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="5">
         <f t="shared" si="8"/>
         <v>13364.589508885998</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="5">
         <f t="shared" si="8"/>
         <v>23374.268415351697</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="5">
         <f t="shared" si="8"/>
         <v>36859.754555923908</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="5">
         <f t="shared" si="8"/>
         <v>54343.682727675121</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="5">
         <f t="shared" si="8"/>
         <v>76425.756049684365</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="5">
         <f t="shared" si="8"/>
         <v>103795.69945377023</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="5">
         <f t="shared" si="8"/>
         <v>137246.69329428021</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="5">
         <f t="shared" si="8"/>
         <v>177690.89514457612</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="5">
         <f t="shared" si="8"/>
         <v>226177.28620573092</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="5">
         <f t="shared" si="8"/>
         <v>283912.19485939323</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="59">
         <f t="shared" ref="B19:M19" si="9">100/B9</f>
         <v>14.285714285714286</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="59">
         <f t="shared" si="9"/>
         <v>15.384615384615385</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="59">
         <f t="shared" si="9"/>
         <v>18.181818181818183</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="59">
         <f t="shared" ref="B20:M20" si="10">$B6*B19</f>
         <v>228.57142857142858</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="59">
         <f t="shared" si="10"/>
         <v>246.15384615384616</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="59">
         <f t="shared" si="10"/>
         <v>290.90909090909093</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
@@ -18956,8 +18977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B113725B-FCEC-DC4E-B028-1CED8387012B}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19104,662 +19125,662 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>45672</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>45703</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>45731</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>45762</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>45792</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>45823</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>45853</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>45884</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>45915</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>45945</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="29">
         <v>45976</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <v>46006</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>5</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>5</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>5</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>5</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>5</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <v>5</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="32">
         <v>5</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <v>5</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="32">
         <v>5</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="32">
         <v>5</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="32">
         <v>5</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <f>'revenue 2024'!M10*1.2</f>
         <v>3727.2666593239323</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <f t="shared" ref="C10:M10" si="0">B10*1.2</f>
         <v>4472.7199911887183</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>5367.2639894264621</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <f t="shared" si="0"/>
         <v>6440.7167873117542</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <f t="shared" si="0"/>
         <v>7728.8601447741048</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
         <v>9274.6321737289254</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <f t="shared" si="0"/>
         <v>11129.55860847471</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <f t="shared" si="0"/>
         <v>13355.470330169652</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="33">
         <f t="shared" si="0"/>
         <v>16026.564396203581</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="33">
         <f t="shared" si="0"/>
         <v>19231.877275444298</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="33">
         <f t="shared" si="0"/>
         <v>23078.252730533157</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <f t="shared" si="0"/>
         <v>27693.903276639787</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <f t="shared" ref="B11:M11" si="1">(B14/B10)*100</f>
         <v>19.418976293745203</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745203</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745203</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745203</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745203</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745203</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745203</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745203</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745207</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745203</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745207</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="36">
         <f t="shared" si="1"/>
         <v>19.418976293745207</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <f t="shared" ref="C12:M12" si="2">-1*B15*(C9/100)</f>
         <v>-36.189851448939159</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <f t="shared" si="2"/>
         <v>-77.8081806152192</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <f t="shared" si="2"/>
         <v>-127.84065024337758</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <f t="shared" si="2"/>
         <v>-187.87509006573652</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <f t="shared" si="2"/>
         <v>-259.91664403913882</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <f t="shared" si="2"/>
         <v>-346.36649749789296</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <f t="shared" si="2"/>
         <v>-450.10632221386442</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <f t="shared" si="2"/>
         <v>-574.59411184475687</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <f t="shared" si="2"/>
         <v>-723.97945940324144</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="37">
         <f t="shared" si="2"/>
         <v>-903.24187647335202</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="38">
         <f t="shared" si="2"/>
         <v>-1118.3567769574886</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <f t="shared" ref="B13:M13" si="3">SUM($B12:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <f t="shared" si="3"/>
         <v>-36.189851448939159</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <f t="shared" si="3"/>
         <v>-113.99803206415837</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <f t="shared" si="3"/>
         <v>-241.83868230753595</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <f t="shared" si="3"/>
         <v>-429.71377237327249</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <f t="shared" si="3"/>
         <v>-689.63041641241125</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <f t="shared" si="3"/>
         <v>-1035.9969139103041</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="37">
         <f t="shared" si="3"/>
         <v>-1486.1032361241685</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <f t="shared" si="3"/>
         <v>-2060.6973479689254</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="37">
         <f t="shared" si="3"/>
         <v>-2784.6768073721669</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="37">
         <f t="shared" si="3"/>
         <v>-3687.9186838455189</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="38">
         <f t="shared" si="3"/>
         <v>-4806.2754608030073</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <f>'revenue 2024'!M14 * 1.2</f>
         <v>723.79702897878315</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <f t="shared" ref="C14:M14" si="4">B14+(B14*$B2)</f>
         <v>868.55643477453975</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <f t="shared" si="4"/>
         <v>1042.2677217294477</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <f t="shared" si="4"/>
         <v>1250.7212660753371</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <f t="shared" si="4"/>
         <v>1500.8655192904046</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <f t="shared" si="4"/>
         <v>1801.0386231484854</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <f t="shared" si="4"/>
         <v>2161.2463477781826</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="37">
         <f t="shared" si="4"/>
         <v>2593.4956173338192</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="37">
         <f t="shared" si="4"/>
         <v>3112.1947408005831</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="37">
         <f t="shared" si="4"/>
         <v>3734.6336889606996</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="37">
         <f t="shared" si="4"/>
         <v>4481.5604267528397</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="38">
         <f t="shared" si="4"/>
         <v>5377.8725121034076</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="37">
         <f>SUM($B14:B14)+B13</f>
         <v>723.79702897878315</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <f t="shared" ref="C15:M15" si="5">SUM($B14:C14)+C12</f>
         <v>1556.1636123043838</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <f t="shared" si="5"/>
         <v>2556.8130048675516</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <f t="shared" si="5"/>
         <v>3757.5018013147301</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <f t="shared" si="5"/>
         <v>5198.3328807827756</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <f t="shared" si="5"/>
         <v>6927.3299499578588</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="37">
         <f t="shared" si="5"/>
         <v>9002.1264442772881</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="37">
         <f t="shared" si="5"/>
         <v>11491.882236895137</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="37">
         <f t="shared" si="5"/>
         <v>14479.589188064827</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="37">
         <f t="shared" si="5"/>
         <v>18064.83752946704</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="37">
         <f t="shared" si="5"/>
         <v>22367.135539149771</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="37">
         <f t="shared" si="5"/>
         <v>27529.893150769043</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="5">
         <f t="shared" ref="B16:M16" si="6">B15*$B6</f>
         <v>11580.75246366053</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="5">
         <f t="shared" si="6"/>
         <v>24898.617796870141</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="5">
         <f t="shared" si="6"/>
         <v>40909.008077880826</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="5">
         <f t="shared" si="6"/>
         <v>60120.028821035681</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="5">
         <f t="shared" si="6"/>
         <v>83173.32609252441</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="5">
         <f t="shared" si="6"/>
         <v>110837.27919932574</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="5">
         <f t="shared" si="6"/>
         <v>144034.02310843661</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="5">
         <f t="shared" si="6"/>
         <v>183870.11579032219</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="5">
         <f t="shared" si="6"/>
         <v>231673.42700903723</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="5">
         <f t="shared" si="6"/>
         <v>289037.40047147265</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="5">
         <f t="shared" si="6"/>
         <v>357874.16862639633</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="5">
         <f t="shared" si="6"/>
         <v>440478.29041230469</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="42">
+      <c r="C17" s="39">
         <f t="shared" ref="C17:M17" si="7">(C16-B16)/B16</f>
         <v>1.1500000000000001</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="39">
         <f t="shared" si="7"/>
         <v>0.64302325581395348</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="39">
         <f t="shared" si="7"/>
         <v>0.46960368011323406</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="39">
         <f t="shared" si="7"/>
         <v>0.38345452794298235</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="39">
         <f t="shared" si="7"/>
         <v>0.33260606983574459</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="39">
         <f t="shared" si="7"/>
         <v>0.29950883086376606</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="39">
         <f t="shared" si="7"/>
         <v>0.27657418589144606</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="39">
         <f t="shared" si="7"/>
         <v>0.25998412527910703</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="39">
         <f t="shared" si="7"/>
         <v>0.24760704843459555</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="39">
         <f t="shared" si="7"/>
         <v>0.23815868826192865</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="40">
         <f t="shared" si="7"/>
         <v>0.23081889956730334</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="5">
         <f>B16</f>
         <v>11580.75246366053</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="5">
         <f t="shared" ref="C18:M18" si="8">SUM($B16:C16)</f>
         <v>36479.370260530675</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="5">
         <f t="shared" si="8"/>
         <v>77388.378338411509</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="5">
         <f t="shared" si="8"/>
         <v>137508.4071594472</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="5">
         <f t="shared" si="8"/>
         <v>220681.7332519716</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="5">
         <f t="shared" si="8"/>
         <v>331519.01245129737</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="5">
         <f t="shared" si="8"/>
         <v>475553.03555973398</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="5">
         <f t="shared" si="8"/>
         <v>659423.15135005617</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="5">
         <f t="shared" si="8"/>
         <v>891096.5783590934</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="5">
         <f t="shared" si="8"/>
         <v>1180133.9788305662</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="5">
         <f t="shared" si="8"/>
         <v>1538008.1474569626</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="5">
         <f t="shared" si="8"/>
         <v>1978486.4378692673</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="59">
         <f t="shared" ref="B19:M19" si="9">100/B9</f>
         <v>20</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="59">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="59">
         <f t="shared" ref="B20:M20" si="10">$B6*B19</f>
         <v>320</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="59">
         <f t="shared" si="10"/>
         <v>320</v>
       </c>
@@ -19773,167 +19794,2691 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DEAED3-D487-45FF-91AB-899A28D8D6B9}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="O136" sqref="O136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="2"/>
-    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="26.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="15">
-        <f>IRR(A5:E5)</f>
+        <f>IRR(C5:G5)</f>
         <v>1.3395446832227274</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="58">
-        <f>NPV(G1,A5,B5,C5,D5,E5)</f>
+      <c r="F1" s="53">
+        <f>NPV(I1,C5,D5,E5,F5,G5)</f>
         <v>1240324.4337283229</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="15">
+      <c r="I1" s="15">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="E3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="59">
+    <row r="5" spans="1:9">
+      <c r="C5" s="54">
         <v>-100000</v>
       </c>
-      <c r="B5" s="59">
+      <c r="D5" s="54">
         <f>'costs 2023'!C59</f>
         <v>-77542.216052826654</v>
       </c>
-      <c r="C5" s="59">
+      <c r="E5" s="54">
         <f>'costs 2024'!C58</f>
         <v>-3030.0211934334366</v>
       </c>
-      <c r="D5" s="59">
+      <c r="F5" s="54">
         <f>'costs 2025'!C59</f>
         <v>1712056.416675834</v>
       </c>
-      <c r="E5" s="59"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="2">
-        <v>2023</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2024</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B10" s="62">
+        <v>-8350</v>
+      </c>
+      <c r="C10" s="62">
         <v>-14043.055555555557</v>
       </c>
-      <c r="C9" s="21">
-        <v>-17283.330000000002</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="D10" s="62">
+        <v>-17283.333333333332</v>
+      </c>
+      <c r="E10" s="62">
         <v>-22583.333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B11" s="62">
+        <v>100000</v>
+      </c>
+      <c r="C11" s="62">
         <v>66600</v>
       </c>
-      <c r="C10" s="21">
-        <v>-77542.22</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="D11" s="62">
+        <v>-77542.216052826654</v>
+      </c>
+      <c r="E11" s="62">
         <v>-3030.0211934334366</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="63">
+        <v>11.976047904191617</v>
+      </c>
+      <c r="C12" s="63">
+        <v>4.7425576105231926</v>
+      </c>
+      <c r="D12" s="63">
+        <v>-4.4865313048887172</v>
+      </c>
+      <c r="E12" s="63">
+        <v>-0.13417068015203409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="62">
+        <v>-14043.055555555557</v>
+      </c>
+      <c r="D15" s="62">
+        <v>-17283.333333333332</v>
+      </c>
+      <c r="E15" s="62">
+        <v>-22583.333333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="62">
+        <v>66600</v>
+      </c>
+      <c r="D16" s="62">
+        <v>-77542.216052826654</v>
+      </c>
+      <c r="E16" s="62">
+        <v>-3030.0211934334366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B17" s="60"/>
+      <c r="C17" s="62">
         <v>26374.450613839999</v>
       </c>
-      <c r="C11" s="21">
-        <v>283912.19</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="D17" s="62">
+        <v>283912.19485939323</v>
+      </c>
+      <c r="E17" s="62">
         <v>1978486.4378692673</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B18" s="60"/>
+      <c r="C18" s="62">
         <v>92974.450613840003</v>
       </c>
-      <c r="C12" s="21">
-        <v>206369.98</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="D18" s="62">
+        <v>206369.97880656656</v>
+      </c>
+      <c r="E18" s="62">
         <v>1975456.416675834</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="63">
+        <v>6.6206709961393333</v>
+      </c>
+      <c r="D19" s="63">
+        <v>11.940403788229503</v>
+      </c>
+      <c r="E19" s="63">
+        <v>87.474084871254647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="D25" s="14">
+        <v>21800</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1816.6666666666667</v>
+      </c>
+      <c r="H25" s="14">
+        <v>5450</v>
+      </c>
+      <c r="I25" s="14">
+        <v>7266.666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="D26" s="14">
+        <v>21800</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1816.6666666666667</v>
+      </c>
+      <c r="H26" s="14">
+        <v>5450</v>
+      </c>
+      <c r="I26" s="14">
+        <v>7266.666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="D27" s="14">
+        <v>21800</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1816.6666666666667</v>
+      </c>
+      <c r="H27" s="14">
+        <v>5450</v>
+      </c>
+      <c r="I27" s="14">
+        <v>7266.666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>20000</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I28" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>20000</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I29" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="14">
+        <v>100000</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>5450</v>
+      </c>
+      <c r="H30" s="14">
+        <v>26350</v>
+      </c>
+      <c r="I30" s="14">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47">
+        <v>0</v>
+      </c>
+      <c r="F31" s="47">
+        <v>0</v>
+      </c>
+      <c r="G31" s="47">
+        <v>3</v>
+      </c>
+      <c r="H31" s="47">
+        <v>5</v>
+      </c>
+      <c r="I31" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="14">
+        <v>600</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <v>600</v>
+      </c>
+      <c r="I42" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1600</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <v>0</v>
+      </c>
+      <c r="I49" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="14">
+        <v>33400</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>5450</v>
+      </c>
+      <c r="H53" s="14">
+        <v>27950.000000000004</v>
+      </c>
+      <c r="I53" s="14">
+        <v>33400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C57" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D57" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E57" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F57" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G57" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C58" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D58" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E58" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F58" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G58" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C59" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D59" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E59" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F59" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G59" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14">
+        <v>3633.3333333333335</v>
+      </c>
+      <c r="E60" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F60" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G60" s="14">
+        <v>14533.333333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14">
+        <v>3633.3333333333335</v>
+      </c>
+      <c r="E61" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F61" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G61" s="14">
+        <v>14533.333333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C62" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D62" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F62" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G62" s="14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C63" s="14">
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="D63" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E63" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F63" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G63" s="14">
+        <v>16666.666666666668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C64" s="14">
+        <v>0</v>
+      </c>
+      <c r="D64" s="14">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="E64" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F64" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G64" s="14">
+        <v>13333.333333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="14">
+        <v>30000</v>
+      </c>
+      <c r="C65" s="14">
+        <v>0</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0</v>
+      </c>
+      <c r="E65" s="14">
+        <v>0</v>
+      </c>
+      <c r="F65" s="14">
+        <v>7650</v>
+      </c>
+      <c r="G65" s="14">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="14">
+        <v>190000</v>
+      </c>
+      <c r="C66" s="14">
+        <v>23016.666666666668</v>
+      </c>
+      <c r="D66" s="14">
+        <v>36950</v>
+      </c>
+      <c r="E66" s="14">
+        <v>42250</v>
+      </c>
+      <c r="F66" s="14">
+        <v>49900</v>
+      </c>
+      <c r="G66" s="14">
+        <v>152116.66666666666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47">
+        <v>5</v>
+      </c>
+      <c r="D67" s="47">
+        <v>8</v>
+      </c>
+      <c r="E67" s="47">
+        <v>8</v>
+      </c>
+      <c r="F67" s="47">
+        <v>9</v>
+      </c>
+      <c r="G67" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="14">
+        <v>0</v>
+      </c>
+      <c r="C71" s="14">
+        <v>0</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0</v>
+      </c>
+      <c r="E71" s="14">
+        <v>0</v>
+      </c>
+      <c r="F71" s="14">
+        <v>0</v>
+      </c>
+      <c r="G71" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="14">
+        <v>3600</v>
+      </c>
+      <c r="C72" s="14">
+        <v>900</v>
+      </c>
+      <c r="D72" s="14">
+        <v>900</v>
+      </c>
+      <c r="E72" s="14">
+        <v>900</v>
+      </c>
+      <c r="F72" s="14">
+        <v>900</v>
+      </c>
+      <c r="G72" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="14">
+        <v>3600</v>
+      </c>
+      <c r="C73" s="14">
+        <v>900</v>
+      </c>
+      <c r="D73" s="14">
+        <v>900</v>
+      </c>
+      <c r="E73" s="14">
+        <v>900</v>
+      </c>
+      <c r="F73" s="14">
+        <v>900</v>
+      </c>
+      <c r="G73" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C77" s="14">
+        <v>1250</v>
+      </c>
+      <c r="D77" s="14">
+        <v>1250</v>
+      </c>
+      <c r="E77" s="14">
+        <v>1250</v>
+      </c>
+      <c r="F77" s="14">
+        <v>1250</v>
+      </c>
+      <c r="G77" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="14">
+        <v>1800</v>
+      </c>
+      <c r="C78" s="14">
+        <v>450</v>
+      </c>
+      <c r="D78" s="14">
+        <v>450</v>
+      </c>
+      <c r="E78" s="14">
+        <v>450</v>
+      </c>
+      <c r="F78" s="14">
+        <v>450</v>
+      </c>
+      <c r="G78" s="14">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C79" s="14">
+        <v>500</v>
+      </c>
+      <c r="D79" s="14">
+        <v>500</v>
+      </c>
+      <c r="E79" s="14">
+        <v>500</v>
+      </c>
+      <c r="F79" s="14">
+        <v>500</v>
+      </c>
+      <c r="G79" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="14">
+        <v>8800</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1700</v>
+      </c>
+      <c r="D80" s="14">
+        <v>1700</v>
+      </c>
+      <c r="E80" s="14">
+        <v>1700</v>
+      </c>
+      <c r="F80" s="14">
+        <v>1700</v>
+      </c>
+      <c r="G80" s="14">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="14">
+        <v>18000</v>
+      </c>
+      <c r="C84" s="14">
+        <v>0</v>
+      </c>
+      <c r="D84" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E84" s="14">
+        <v>4500</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0</v>
+      </c>
+      <c r="G84" s="14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="14">
+        <v>18000</v>
+      </c>
+      <c r="C85" s="14">
+        <v>0</v>
+      </c>
+      <c r="D85" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E85" s="14">
+        <v>4500</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0</v>
+      </c>
+      <c r="G85" s="14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="14">
+        <v>170516.66666666666</v>
+      </c>
+      <c r="C89" s="14">
+        <v>25616.666666666668</v>
+      </c>
+      <c r="D89" s="14">
+        <v>41050</v>
+      </c>
+      <c r="E89" s="14">
+        <v>49350</v>
+      </c>
+      <c r="F89" s="14">
+        <v>52500</v>
+      </c>
+      <c r="G89" s="14">
+        <v>168516.66666666669</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G91" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C92" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D92" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E92" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F92" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G92" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C93" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D93" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E93" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F93" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G93" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C94" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D94" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E94" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F94" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G94" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C95" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D95" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E95" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F95" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G95" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C96" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D96" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E96" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F96" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G96" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C97" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D97" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E97" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F97" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G97" s="14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C98" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D98" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E98" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F98" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G98" s="14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C99" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D99" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E99" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F99" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G99" s="14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="14">
+        <v>30000</v>
+      </c>
+      <c r="C100" s="14">
+        <v>7650</v>
+      </c>
+      <c r="D100" s="14">
+        <v>7650</v>
+      </c>
+      <c r="E100" s="14">
+        <v>7650</v>
+      </c>
+      <c r="F100" s="14">
+        <v>7650</v>
+      </c>
+      <c r="G100" s="14">
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="14">
+        <v>160000</v>
+      </c>
+      <c r="C101" s="14">
+        <v>42250</v>
+      </c>
+      <c r="D101" s="14">
+        <v>42250</v>
+      </c>
+      <c r="E101" s="14">
+        <v>42250</v>
+      </c>
+      <c r="F101" s="14">
+        <v>42250</v>
+      </c>
+      <c r="G101" s="14">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47">
+        <v>9</v>
+      </c>
+      <c r="D102" s="47">
+        <v>9</v>
+      </c>
+      <c r="E102" s="47">
+        <v>9</v>
+      </c>
+      <c r="F102" s="47">
+        <v>9</v>
+      </c>
+      <c r="G102" s="47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F105" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="14">
+        <v>0</v>
+      </c>
+      <c r="C106" s="14">
+        <v>0</v>
+      </c>
+      <c r="D106" s="14">
+        <v>0</v>
+      </c>
+      <c r="E106" s="14">
+        <v>0</v>
+      </c>
+      <c r="F106" s="14">
+        <v>0</v>
+      </c>
+      <c r="G106" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="14">
+        <v>3600</v>
+      </c>
+      <c r="C107" s="14">
+        <v>900</v>
+      </c>
+      <c r="D107" s="14">
+        <v>900</v>
+      </c>
+      <c r="E107" s="14">
+        <v>900</v>
+      </c>
+      <c r="F107" s="14">
+        <v>900</v>
+      </c>
+      <c r="G107" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="14">
+        <v>3600</v>
+      </c>
+      <c r="C108" s="14">
+        <v>900</v>
+      </c>
+      <c r="D108" s="14">
+        <v>900</v>
+      </c>
+      <c r="E108" s="14">
+        <v>900</v>
+      </c>
+      <c r="F108" s="14">
+        <v>900</v>
+      </c>
+      <c r="G108" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G111" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="14">
+        <v>15000</v>
+      </c>
+      <c r="C112" s="14">
+        <v>3750</v>
+      </c>
+      <c r="D112" s="14">
+        <v>3750</v>
+      </c>
+      <c r="E112" s="14">
+        <v>3750</v>
+      </c>
+      <c r="F112" s="14">
+        <v>3750</v>
+      </c>
+      <c r="G112" s="14">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="14">
+        <v>1800</v>
+      </c>
+      <c r="C113" s="14">
+        <v>450</v>
+      </c>
+      <c r="D113" s="14">
+        <v>450</v>
+      </c>
+      <c r="E113" s="14">
+        <v>450</v>
+      </c>
+      <c r="F113" s="14">
+        <v>450</v>
+      </c>
+      <c r="G113" s="14">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C114" s="14">
+        <v>500</v>
+      </c>
+      <c r="D114" s="14">
+        <v>500</v>
+      </c>
+      <c r="E114" s="14">
+        <v>500</v>
+      </c>
+      <c r="F114" s="14">
+        <v>500</v>
+      </c>
+      <c r="G114" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="14">
+        <v>18800</v>
+      </c>
+      <c r="C115" s="14">
+        <v>4200</v>
+      </c>
+      <c r="D115" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E115" s="14">
+        <v>4200</v>
+      </c>
+      <c r="F115" s="14">
+        <v>4200</v>
+      </c>
+      <c r="G115" s="14">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E118" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G118" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="14">
+        <v>0</v>
+      </c>
+      <c r="C119" s="14">
+        <v>0</v>
+      </c>
+      <c r="D119" s="14">
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <v>0</v>
+      </c>
+      <c r="F119" s="14">
+        <v>0</v>
+      </c>
+      <c r="G119" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="14">
+        <v>18000</v>
+      </c>
+      <c r="C120" s="14">
+        <v>4500</v>
+      </c>
+      <c r="D120" s="14">
+        <v>4500</v>
+      </c>
+      <c r="E120" s="14">
+        <v>4500</v>
+      </c>
+      <c r="F120" s="14">
+        <v>4500</v>
+      </c>
+      <c r="G120" s="14">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G123" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="14">
+        <v>209400</v>
+      </c>
+      <c r="C124" s="14">
+        <v>51850</v>
+      </c>
+      <c r="D124" s="14">
+        <v>51850</v>
+      </c>
+      <c r="E124" s="14">
+        <v>51850</v>
+      </c>
+      <c r="F124" s="14">
+        <v>51850</v>
+      </c>
+      <c r="G124" s="14">
+        <v>207400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D127" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E127" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F127" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G127" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C128" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D128" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E128" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F128" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G128" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C129" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D129" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E129" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F129" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G129" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C130" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D130" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E130" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F130" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G130" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C131" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D131" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E131" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F131" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G131" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C132" s="14">
+        <v>5450</v>
+      </c>
+      <c r="D132" s="14">
+        <v>5450</v>
+      </c>
+      <c r="E132" s="14">
+        <v>5450</v>
+      </c>
+      <c r="F132" s="14">
+        <v>5450</v>
+      </c>
+      <c r="G132" s="14">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C133" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D133" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E133" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F133" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G133" s="14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C134" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D134" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E134" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F134" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G134" s="14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B135" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C135" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D135" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E135" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F135" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G135" s="14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="14">
+        <v>30000</v>
+      </c>
+      <c r="C136" s="14">
+        <v>7650</v>
+      </c>
+      <c r="D136" s="14">
+        <v>7650</v>
+      </c>
+      <c r="E136" s="14">
+        <v>7650</v>
+      </c>
+      <c r="F136" s="14">
+        <v>7650</v>
+      </c>
+      <c r="G136" s="14">
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C137" s="14">
+        <v>5100</v>
+      </c>
+      <c r="D137" s="14">
+        <v>5100</v>
+      </c>
+      <c r="E137" s="14">
+        <v>5100</v>
+      </c>
+      <c r="F137" s="14">
+        <v>5100</v>
+      </c>
+      <c r="G137" s="14">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="14">
+        <v>190000</v>
+      </c>
+      <c r="C138" s="14">
+        <v>49900</v>
+      </c>
+      <c r="D138" s="14">
+        <v>49900</v>
+      </c>
+      <c r="E138" s="14">
+        <v>49900</v>
+      </c>
+      <c r="F138" s="14">
+        <v>49900</v>
+      </c>
+      <c r="G138" s="14">
+        <v>199600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" s="47"/>
+      <c r="C139" s="47">
+        <v>10</v>
+      </c>
+      <c r="D139" s="47">
+        <v>10</v>
+      </c>
+      <c r="E139" s="47">
+        <v>10</v>
+      </c>
+      <c r="F139" s="47">
+        <v>10</v>
+      </c>
+      <c r="G139" s="47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E142" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F142" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G142" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="14">
+        <v>0</v>
+      </c>
+      <c r="C143" s="14">
+        <v>0</v>
+      </c>
+      <c r="D143" s="14">
+        <v>0</v>
+      </c>
+      <c r="E143" s="14">
+        <v>0</v>
+      </c>
+      <c r="F143" s="14">
+        <v>0</v>
+      </c>
+      <c r="G143" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="14">
+        <v>3600</v>
+      </c>
+      <c r="C144" s="14">
+        <v>900</v>
+      </c>
+      <c r="D144" s="14">
+        <v>900</v>
+      </c>
+      <c r="E144" s="14">
+        <v>900</v>
+      </c>
+      <c r="F144" s="14">
+        <v>900</v>
+      </c>
+      <c r="G144" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" s="14">
+        <v>3600</v>
+      </c>
+      <c r="C145" s="14">
+        <v>900</v>
+      </c>
+      <c r="D145" s="14">
+        <v>900</v>
+      </c>
+      <c r="E145" s="14">
+        <v>900</v>
+      </c>
+      <c r="F145" s="14">
+        <v>900</v>
+      </c>
+      <c r="G145" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E148" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F148" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G148" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="14">
+        <v>30000</v>
+      </c>
+      <c r="C149" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D149" s="14">
+        <v>7500</v>
+      </c>
+      <c r="E149" s="14">
+        <v>7500</v>
+      </c>
+      <c r="F149" s="14">
+        <v>7500</v>
+      </c>
+      <c r="G149" s="14">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B150" s="14">
+        <v>1800</v>
+      </c>
+      <c r="C150" s="14">
+        <v>450</v>
+      </c>
+      <c r="D150" s="14">
+        <v>450</v>
+      </c>
+      <c r="E150" s="14">
+        <v>450</v>
+      </c>
+      <c r="F150" s="14">
+        <v>450</v>
+      </c>
+      <c r="G150" s="14">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C151" s="14">
+        <v>500</v>
+      </c>
+      <c r="D151" s="14">
+        <v>500</v>
+      </c>
+      <c r="E151" s="14">
+        <v>500</v>
+      </c>
+      <c r="F151" s="14">
+        <v>500</v>
+      </c>
+      <c r="G151" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" s="14">
+        <v>33800</v>
+      </c>
+      <c r="C152" s="14">
+        <v>7950</v>
+      </c>
+      <c r="D152" s="14">
+        <v>7950</v>
+      </c>
+      <c r="E152" s="14">
+        <v>7950</v>
+      </c>
+      <c r="F152" s="14">
+        <v>7950</v>
+      </c>
+      <c r="G152" s="14">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E155" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F155" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G155" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="14">
+        <v>36000</v>
+      </c>
+      <c r="C156" s="14">
+        <v>9000</v>
+      </c>
+      <c r="D156" s="14">
+        <v>9000</v>
+      </c>
+      <c r="E156" s="14">
+        <v>9000</v>
+      </c>
+      <c r="F156" s="14">
+        <v>9000</v>
+      </c>
+      <c r="G156" s="14">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="14">
+        <v>36000</v>
+      </c>
+      <c r="C157" s="14">
+        <v>9000</v>
+      </c>
+      <c r="D157" s="14">
+        <v>9000</v>
+      </c>
+      <c r="E157" s="14">
+        <v>9000</v>
+      </c>
+      <c r="F157" s="14">
+        <v>9000</v>
+      </c>
+      <c r="G157" s="14">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D160" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E160" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F160" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G160" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="14">
+        <v>263400</v>
+      </c>
+      <c r="C161" s="14">
+        <v>67750</v>
+      </c>
+      <c r="D161" s="14">
+        <v>67750</v>
+      </c>
+      <c r="E161" s="14">
+        <v>67750</v>
+      </c>
+      <c r="F161" s="14">
+        <v>67750</v>
+      </c>
+      <c r="G161" s="14">
+        <v>271000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19941,21 +22486,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001BD041749453DA4F80C28CBAE59B8514" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52edb68fe2a9f8108e4d2a43726fb15b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90813bc3-6587-4889-9516-df4e7b5cd74f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3071356fb8c42846b13e4607834861d5" ns2:_="">
     <xsd:import namespace="90813bc3-6587-4889-9516-df4e7b5cd74f"/>
@@ -20127,31 +22663,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3528B22-D495-494F-92F9-9C11DA919825}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCCADFD0-3CA4-49D0-BB4F-3261B0C65109}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="90813bc3-6587-4889-9516-df4e7b5cd74f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCCADFD0-3CA4-49D0-BB4F-3261B0C65109}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="90813bc3-6587-4889-9516-df4e7b5cd74f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{999D86E4-21EE-4C6B-BA1F-1E771C4AC325}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20167,4 +22704,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3528B22-D495-494F-92F9-9C11DA919825}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel for menso - Stats and Bots.xlsx
+++ b/Excel for menso - Stats and Bots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhabrataroy/Desktop/eMBA/Final Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C0DB78-C9DC-5049-9B06-5E6A1998A784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674EDDED-2826-5B48-AA62-F0DA703B2159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs 2022" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="97">
   <si>
     <t>menso costs 2022</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Q4 2018</t>
   </si>
   <si>
-    <t>FY 2018</t>
-  </si>
-  <si>
     <t>Cash Available (Capital)</t>
   </si>
   <si>
@@ -343,9 +340,9 @@
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -590,8 +587,8 @@
     <xf numFmtId="42" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,7 +597,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -626,11 +623,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -652,7 +649,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -660,7 +657,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7166,8 +7163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC9C21-377B-6945-95BA-0D02293DA1E7}">
   <dimension ref="A1:V994"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U5" activeCellId="5" sqref="A5:A47 B5:B47 I5:I47 M5:M47 Q5:Q47 U5:V47"/>
+    <sheetView tabSelected="1" topLeftCell="K20" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9203,7 +9200,7 @@
         <v>50</v>
       </c>
       <c r="V40" s="45" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1">
@@ -9505,7 +9502,7 @@
         <v>50</v>
       </c>
       <c r="V46" s="45" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1">
@@ -9608,7 +9605,7 @@
     </row>
     <row r="52" spans="1:4" ht="18.75" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="21">
         <f xml:space="preserve"> 100000 - 'costs 2022'!B43</f>
@@ -9627,7 +9624,7 @@
     <row r="54" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="55" spans="1:4" ht="21" customHeight="1">
       <c r="A55" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="52"/>
     </row>
@@ -9642,7 +9639,7 @@
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="21">
         <f xml:space="preserve"> 100000 - 'costs 2022'!B43</f>
@@ -9651,7 +9648,7 @@
     </row>
     <row r="58" spans="1:4" ht="18.75" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="21">
         <f>'revenue 2023'!M18</f>
@@ -9660,7 +9657,7 @@
     </row>
     <row r="59" spans="1:4" ht="18.75" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="21">
         <f>B57+B58</f>
@@ -9671,12 +9668,12 @@
         <v>-77542.216052826654</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="57" customHeight="1">
       <c r="A60" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="58">
         <f>-(B59/B56)</f>
@@ -10660,7 +10657,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1"/>
@@ -10696,7 +10693,7 @@
         <v>45366</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="23">
         <v>45397</v>
@@ -10708,7 +10705,7 @@
         <v>45458</v>
       </c>
       <c r="M5" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="23">
         <v>45488</v>
@@ -10720,7 +10717,7 @@
         <v>45550</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R5" s="23">
         <v>45580</v>
@@ -10732,10 +10729,10 @@
         <v>45641</v>
       </c>
       <c r="U5" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="V5" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1">
@@ -11698,7 +11695,7 @@
         <v>45366</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="23">
         <v>45397</v>
@@ -11710,7 +11707,7 @@
         <v>45458</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N20" s="23">
         <v>45488</v>
@@ -11722,7 +11719,7 @@
         <v>45550</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R20" s="23">
         <v>45580</v>
@@ -11734,10 +11731,10 @@
         <v>45641</v>
       </c>
       <c r="U20" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="V20" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1">
@@ -12162,7 +12159,7 @@
         <v>45366</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J29" s="23">
         <v>45397</v>
@@ -12174,7 +12171,7 @@
         <v>45458</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N29" s="23">
         <v>45488</v>
@@ -12186,7 +12183,7 @@
         <v>45550</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R29" s="23">
         <v>45580</v>
@@ -12198,10 +12195,10 @@
         <v>45641</v>
       </c>
       <c r="U29" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V29" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="V29" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1">
@@ -12627,7 +12624,7 @@
         <v>45366</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J39" s="23">
         <v>45397</v>
@@ -12639,7 +12636,7 @@
         <v>45458</v>
       </c>
       <c r="M39" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N39" s="23">
         <v>45488</v>
@@ -12651,7 +12648,7 @@
         <v>45550</v>
       </c>
       <c r="Q39" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R39" s="23">
         <v>45580</v>
@@ -12663,10 +12660,10 @@
         <v>45641</v>
       </c>
       <c r="U39" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="V39" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1">
@@ -12929,7 +12926,7 @@
         <v>45366</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J45" s="23">
         <v>45397</v>
@@ -12941,7 +12938,7 @@
         <v>45458</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N45" s="23">
         <v>45488</v>
@@ -12953,7 +12950,7 @@
         <v>45550</v>
       </c>
       <c r="Q45" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R45" s="23">
         <v>45580</v>
@@ -12965,10 +12962,10 @@
         <v>45641</v>
       </c>
       <c r="U45" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V45" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="V45" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1">
@@ -13071,7 +13068,7 @@
     </row>
     <row r="51" spans="1:4" ht="18.75" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="21">
         <f>'costs 2023'!B59 - 'costs 2023'!B47</f>
@@ -13090,7 +13087,7 @@
     <row r="53" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="54" spans="1:4" ht="21" customHeight="1">
       <c r="A54" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="52"/>
     </row>
@@ -13105,7 +13102,7 @@
     </row>
     <row r="56" spans="1:4" ht="18.75" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="21">
         <f>'costs 2023'!B59 - 'costs 2023'!B47</f>
@@ -13114,7 +13111,7 @@
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="21">
         <f>'revenue 2024'!M18</f>
@@ -13123,7 +13120,7 @@
     </row>
     <row r="58" spans="1:4" ht="18.75" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="21">
         <f>B56+B57</f>
@@ -13134,12 +13131,12 @@
         <v>-3030.0211934334366</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="57" customHeight="1">
       <c r="A59" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="58">
         <f>-(B58/B55)</f>
@@ -14123,7 +14120,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1"/>
@@ -14159,7 +14156,7 @@
         <v>45731</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="23">
         <v>45762</v>
@@ -14171,7 +14168,7 @@
         <v>45823</v>
       </c>
       <c r="M5" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5" s="23">
         <v>45853</v>
@@ -14183,7 +14180,7 @@
         <v>45915</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R5" s="23">
         <v>45945</v>
@@ -14195,10 +14192,10 @@
         <v>46006</v>
       </c>
       <c r="U5" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="V5" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1">
@@ -14977,7 +14974,7 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="14">
         <v>20000</v>
@@ -15247,7 +15244,7 @@
         <v>45731</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J21" s="23">
         <v>45762</v>
@@ -15259,7 +15256,7 @@
         <v>45823</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N21" s="23">
         <v>45853</v>
@@ -15271,7 +15268,7 @@
         <v>45915</v>
       </c>
       <c r="Q21" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R21" s="23">
         <v>45945</v>
@@ -15283,10 +15280,10 @@
         <v>46006</v>
       </c>
       <c r="U21" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V21" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="V21" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
@@ -15711,7 +15708,7 @@
         <v>45731</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J30" s="23">
         <v>45762</v>
@@ -15723,7 +15720,7 @@
         <v>45823</v>
       </c>
       <c r="M30" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N30" s="23">
         <v>45853</v>
@@ -15735,7 +15732,7 @@
         <v>45915</v>
       </c>
       <c r="Q30" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R30" s="23">
         <v>45945</v>
@@ -15747,10 +15744,10 @@
         <v>46006</v>
       </c>
       <c r="U30" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V30" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="V30" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1">
@@ -16176,7 +16173,7 @@
         <v>45731</v>
       </c>
       <c r="I40" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J40" s="23">
         <v>45762</v>
@@ -16188,7 +16185,7 @@
         <v>45823</v>
       </c>
       <c r="M40" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N40" s="23">
         <v>45853</v>
@@ -16200,7 +16197,7 @@
         <v>45915</v>
       </c>
       <c r="Q40" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R40" s="23">
         <v>45945</v>
@@ -16212,10 +16209,10 @@
         <v>46006</v>
       </c>
       <c r="U40" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V40" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="V40" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1">
@@ -16478,7 +16475,7 @@
         <v>45731</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J46" s="23">
         <v>45762</v>
@@ -16490,7 +16487,7 @@
         <v>45823</v>
       </c>
       <c r="M46" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N46" s="23">
         <v>45853</v>
@@ -16502,7 +16499,7 @@
         <v>45915</v>
       </c>
       <c r="Q46" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R46" s="23">
         <v>45945</v>
@@ -16514,10 +16511,10 @@
         <v>46006</v>
       </c>
       <c r="U46" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V46" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="V46" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1">
@@ -16620,7 +16617,7 @@
     </row>
     <row r="52" spans="1:4" ht="18.75" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="21">
         <f>'costs 2024'!B58 - 'costs 2024'!B46</f>
@@ -16639,7 +16636,7 @@
     <row r="54" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="55" spans="1:4" ht="21" customHeight="1">
       <c r="A55" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="52"/>
     </row>
@@ -16654,7 +16651,7 @@
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="21">
         <f>'costs 2024'!B58-'costs 2024'!B46</f>
@@ -16663,7 +16660,7 @@
     </row>
     <row r="58" spans="1:4" ht="18.75" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="21">
         <f>'revenue 2025'!M18</f>
@@ -16672,7 +16669,7 @@
     </row>
     <row r="59" spans="1:4" ht="18.75" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="21">
         <f>B57+B58</f>
@@ -16683,12 +16680,12 @@
         <v>1712056.416675834</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="57" customHeight="1">
       <c r="A60" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="58">
         <f>-(B59/B56)</f>
@@ -17642,7 +17639,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -17653,13 +17650,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4">
         <v>0.1</v>
@@ -17667,7 +17664,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
@@ -17675,7 +17672,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5">
         <v>50</v>
@@ -17683,7 +17680,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -17691,7 +17688,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5">
         <f>0.9*B3+0.1*B4 + B5</f>
@@ -17700,7 +17697,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="13">
         <v>44941</v>
@@ -17741,7 +17738,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -17770,7 +17767,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -17804,7 +17801,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -17839,7 +17836,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="10"/>
@@ -17874,7 +17871,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -17909,7 +17906,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="10"/>
@@ -17943,7 +17940,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -17978,7 +17975,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -18013,7 +18010,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="11"/>
@@ -18045,7 +18042,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -18077,7 +18074,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -18112,7 +18109,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -18179,7 +18176,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -18196,7 +18193,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4">
         <v>0.15</v>
@@ -18215,7 +18212,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
@@ -18234,7 +18231,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5">
         <v>50</v>
@@ -18253,7 +18250,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -18272,7 +18269,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5">
         <f>0.9*B3+0.1*B4+B5</f>
@@ -18307,7 +18304,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="28">
         <v>45306</v>
@@ -18348,7 +18345,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="32">
         <v>7</v>
@@ -18389,7 +18386,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="33">
         <f>'revenue 2023'!M10*1.2</f>
@@ -18442,7 +18439,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="36">
         <f t="shared" ref="B11:M11" si="1">(B14/B10)*100</f>
@@ -18495,7 +18492,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -18547,7 +18544,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="37">
         <f t="shared" ref="B13:M13" si="3">SUM($B12:B12)</f>
@@ -18600,7 +18597,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="37">
         <f>'revenue 2023'!M14*1.15</f>
@@ -18653,7 +18650,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="37">
         <f>SUM($B14:B14)+B13</f>
@@ -18706,7 +18703,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" ref="B16:M16" si="6">B15*$B6</f>
@@ -18759,7 +18756,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="39">
@@ -18809,7 +18806,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5">
         <f>B16</f>
@@ -18862,7 +18859,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="59">
         <f t="shared" ref="B19:M19" si="9">100/B9</f>
@@ -18915,7 +18912,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="59">
         <f t="shared" ref="B20:M20" si="10">$B6*B19</f>
@@ -18977,7 +18974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B113725B-FCEC-DC4E-B028-1CED8387012B}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -18998,7 +18995,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -19015,7 +19012,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4">
         <v>0.2</v>
@@ -19034,7 +19031,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
@@ -19053,7 +19050,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5">
         <v>50</v>
@@ -19072,7 +19069,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -19091,7 +19088,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5">
         <f>0.9*B3+0.1*B4+B5</f>
@@ -19126,7 +19123,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="28">
         <v>45672</v>
@@ -19167,7 +19164,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="32">
         <v>5</v>
@@ -19208,7 +19205,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="33">
         <f>'revenue 2024'!M10*1.2</f>
@@ -19261,7 +19258,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="36">
         <f t="shared" ref="B11:M11" si="1">(B14/B10)*100</f>
@@ -19314,7 +19311,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -19366,7 +19363,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="37">
         <f t="shared" ref="B13:M13" si="3">SUM($B12:B12)</f>
@@ -19419,7 +19416,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="37">
         <f>'revenue 2024'!M14 * 1.2</f>
@@ -19472,7 +19469,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="37">
         <f>SUM($B14:B14)+B13</f>
@@ -19525,7 +19522,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" ref="B16:M16" si="6">B15*$B6</f>
@@ -19578,7 +19575,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="39">
@@ -19628,7 +19625,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5">
         <f>B16</f>
@@ -19681,7 +19678,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="59">
         <f t="shared" ref="B19:M19" si="9">100/B9</f>
@@ -19734,7 +19731,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="59">
         <f t="shared" ref="B20:M20" si="10">$B6*B19</f>
@@ -19796,15 +19793,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DEAED3-D487-45FF-91AB-899A28D8D6B9}">
   <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="O136" sqref="O136"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
@@ -19822,17 +19818,17 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F1" s="53">
         <f>NPV(I1,C5,D5,E5,F5,G5)</f>
         <v>1240324.4337283229</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="15">
         <v>0.05</v>
@@ -19846,10 +19842,10 @@
         <v>44</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -19872,7 +19868,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -19884,10 +19880,10 @@
         <v>44</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -19918,7 +19914,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="62">
         <v>100000</v>
@@ -19935,7 +19931,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="63">
         <v>11.976047904191617</v>
@@ -19959,7 +19955,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
@@ -19983,7 +19979,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="60"/>
       <c r="C16" s="62">
@@ -19998,7 +19994,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="60"/>
       <c r="C17" s="62">
@@ -20013,7 +20009,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="62">
@@ -20028,7 +20024,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="60"/>
       <c r="C19" s="63">
@@ -21125,7 +21121,7 @@
         <v>50</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -21199,7 +21195,7 @@
         <v>50</v>
       </c>
       <c r="G88" s="45" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -21233,19 +21229,19 @@
         <v>3</v>
       </c>
       <c r="C91" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="44" t="s">
+      <c r="E91" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="44" t="s">
+      <c r="F91" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F91" s="44" t="s">
+      <c r="G91" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="G91" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -21512,19 +21508,19 @@
         <v>21</v>
       </c>
       <c r="C105" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D105" s="44" t="s">
+      <c r="E105" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E105" s="44" t="s">
+      <c r="F105" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="G105" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="G105" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -21609,19 +21605,19 @@
         <v>21</v>
       </c>
       <c r="C111" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D111" s="44" t="s">
+      <c r="E111" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="44" t="s">
+      <c r="F111" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F111" s="44" t="s">
+      <c r="G111" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="G111" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -21729,19 +21725,19 @@
         <v>21</v>
       </c>
       <c r="C118" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D118" s="44" t="s">
+      <c r="E118" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E118" s="44" t="s">
+      <c r="F118" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F118" s="44" t="s">
+      <c r="G118" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="G118" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -21803,19 +21799,19 @@
         <v>21</v>
       </c>
       <c r="C123" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D123" s="44" t="s">
+      <c r="E123" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E123" s="44" t="s">
+      <c r="F123" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F123" s="44" t="s">
+      <c r="G123" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="G123" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -21849,19 +21845,19 @@
         <v>3</v>
       </c>
       <c r="C127" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D127" s="44" t="s">
+      <c r="E127" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E127" s="44" t="s">
+      <c r="F127" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F127" s="44" t="s">
+      <c r="G127" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="G127" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -22073,7 +22069,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B137" s="14">
         <v>20000</v>
@@ -22151,19 +22147,19 @@
         <v>21</v>
       </c>
       <c r="C142" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D142" s="44" t="s">
+      <c r="E142" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E142" s="44" t="s">
+      <c r="F142" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F142" s="44" t="s">
+      <c r="G142" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="G142" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -22248,19 +22244,19 @@
         <v>21</v>
       </c>
       <c r="C148" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D148" s="44" t="s">
+      <c r="E148" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E148" s="44" t="s">
+      <c r="F148" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F148" s="44" t="s">
+      <c r="G148" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="G148" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -22368,19 +22364,19 @@
         <v>21</v>
       </c>
       <c r="C155" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D155" s="44" t="s">
+      <c r="E155" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E155" s="44" t="s">
+      <c r="F155" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F155" s="44" t="s">
+      <c r="G155" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="G155" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -22442,19 +22438,19 @@
         <v>21</v>
       </c>
       <c r="C160" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D160" s="44" t="s">
+      <c r="E160" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E160" s="44" t="s">
+      <c r="F160" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F160" s="44" t="s">
+      <c r="G160" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="G160" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -22486,9 +22482,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22664,26 +22663,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCCADFD0-3CA4-49D0-BB4F-3261B0C65109}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3528B22-D495-494F-92F9-9C11DA919825}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="90813bc3-6587-4889-9516-df4e7b5cd74f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22707,9 +22695,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3528B22-D495-494F-92F9-9C11DA919825}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCCADFD0-3CA4-49D0-BB4F-3261B0C65109}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="90813bc3-6587-4889-9516-df4e7b5cd74f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>